--- a/Assets/StreamingAssets/InteractConfig.xlsx
+++ b/Assets/StreamingAssets/InteractConfig.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB9FAAA-262A-4260-94FC-C81599360578}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{347DE96B-2D11-4CDC-AAE1-4CBDE651140B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="945" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -895,7 +895,7 @@
   <dimension ref="A1:D57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Assets/StreamingAssets/InteractConfig.xlsx
+++ b/Assets/StreamingAssets/InteractConfig.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{347DE96B-2D11-4CDC-AAE1-4CBDE651140B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A558DF-A68E-49D6-9855-F5D094F34E6F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="945" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="125">
   <si>
     <t>Key</t>
   </si>
@@ -490,6 +490,30 @@
   </si>
   <si>
     <t>floatingFiberGather</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dayTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一天时长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>garbageSpawnInterval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漂浮物产生间隔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>garbageStartSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漂浮物初始速度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -560,7 +584,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -583,11 +607,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -605,6 +640,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -892,10 +930,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D57"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1570,6 +1608,39 @@
         <v>114</v>
       </c>
     </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B58" s="9">
+        <v>120</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B59" s="9">
+        <v>15</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B60" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
